--- a/medicine/Enfance/Ludo_(magazine)/Ludo_(magazine).xlsx
+++ b/medicine/Enfance/Ludo_(magazine)/Ludo_(magazine).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ludo (jeux et énigmes) - Ludo magazine est un magazine trimestriel paru de juillet 1972 à juin 1977, ayant compté dix-huit numéros (il y a eu deux no 1), comportant notamment les Enquêtes de Ludo de Moallic, également publiées dans Pif Gadget.  
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son format était 20 x 26,5 cm, l'intérieur imprimé en noir, blanc et rouge. Les numéros 1 à 5 furent imprimés par l'imprimerie italienne Colombi. Les numéros 6 à 7 par l'imprimerie de Montsouris à Paris, les 8 à 15 par l'imprimerie Paris-Province à Bagnolet et les 16 et 17 par l'imprimerie Alföldi[1] en Hongrie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son format était 20 x 26,5 cm, l'intérieur imprimé en noir, blanc et rouge. Les numéros 1 à 5 furent imprimés par l'imprimerie italienne Colombi. Les numéros 6 à 7 par l'imprimerie de Montsouris à Paris, les 8 à 15 par l'imprimerie Paris-Province à Bagnolet et les 16 et 17 par l'imprimerie Alföldi en Hongrie.
 Après deux années d'interruptions, il est remplacé en avril 1979 par Le Journal de Ludo qui parait jusqu’en août 1980.
 </t>
         </is>
@@ -544,7 +558,9 @@
           <t>Principaux contributeurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>O.A. Grandjean
 Robert Gring (dessinateur)
@@ -555,7 +571,7 @@
 Gil Das
 Prost
 Jacar
-Arca (Arcani, dessinateur)[2]
+Arca (Arcani, dessinateur)
 Jacques Lelièvre
 Roger Dal (pour les jeux)
 Robert Lavaill (dessinateur)
@@ -595,6 +611,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
